--- a/HC.DZWechat/aspnet-core/src/hc.dzwechat.Web.Host/wwwroot/files/downloadtemp/兑换汇总.xlsx
+++ b/HC.DZWechat/aspnet-core/src/hc.dzwechat.Web.Host/wwwroot/files/downloadtemp/兑换汇总.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t xml:space="preserve">店铺名称</t>
   </si>
@@ -59,6 +59,9 @@
     <t xml:space="preserve">米粉</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">龙安柚</t>
   </si>
   <si>
@@ -68,7 +71,7 @@
     <t xml:space="preserve">/</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
+    <t xml:space="preserve">23</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -212,7 +215,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -220,7 +223,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -228,13 +231,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
